--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34EF0AF4-42CB-4DE7-87A3-EA37D4F31172}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAECE4F-DFAC-EC47-BC91-B172BF5C0C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +261,14 @@
       <color theme="1"/>
       <name val="等线"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,9 +301,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,13 +587,13 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -614,7 +625,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">

--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAECE4F-DFAC-EC47-BC91-B172BF5C0C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D74F87-48BD-A847-92E4-0DEAF5A60FFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -639,7 +639,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">

--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D74F87-48BD-A847-92E4-0DEAF5A60FFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32B41985-BBA1-4810-A1F8-DF5B9BECD86A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +269,14 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,10 +295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,9 +313,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,13 +598,13 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -652,7 +663,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -665,10 +676,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -869,7 +880,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{77EC7AED-EFC6-483B-A230-FAF0B995EA29}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32B41985-BBA1-4810-A1F8-DF5B9BECD86A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCF8F4-8C63-0242-9B57-1B764779D6E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,10 +322,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,13 +609,13 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -689,7 +700,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -702,10 +713,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -882,8 +893,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{77EC7AED-EFC6-483B-A230-FAF0B995EA29}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{205BD532-1144-9848-9788-6986B230E720}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCF8F4-8C63-0242-9B57-1B764779D6E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777929-E1C5-354A-91D8-33A42F86D5F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">

--- a/urls_20181001.xlsx
+++ b/urls_20181001.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777929-E1C5-354A-91D8-33A42F86D5F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{637A0261-B7D9-4347-B7DA-05BF99D127D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Moncler</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>https://www.follifollie.com.cn/cn-zh/%E6%89%8B%E8%A2%8B/%E7%B1%BB%E5%88%AB/%E6%89%8B%E8%A2%8B</t>
+  </si>
+  <si>
+    <t>产品页打开有性能问题</t>
   </si>
 </sst>
 </file>
@@ -327,8 +330,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,16 +609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -733,77 +736,80 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -811,12 +817,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -824,7 +830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -894,8 +900,9 @@
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{77EC7AED-EFC6-483B-A230-FAF0B995EA29}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{205BD532-1144-9848-9788-6986B230E720}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{2173650E-BEF7-4D57-8E8E-199C62E1215B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>